--- a/Test Data/TC_63643_Verify_DC_Units_Calculation_On_Changing_Base_Of_Device_To_Sounder_Base.xlsx
+++ b/Test Data/TC_63643_Verify_DC_Units_Calculation_On_Changing_Base_Of_Device_To_Sounder_Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADB818D-9948-4039-B64F-C21577702894}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBC57D-113B-4543-9AD0-2300058DD68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,8 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="54.44140625" customWidth="1"/>
     <col min="10" max="10" width="26.44140625" customWidth="1"/>
@@ -876,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +887,7 @@
     <col min="2" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.21875" customWidth="1"/>

--- a/Test Data/TC_63643_Verify_DC_Units_Calculation_On_Changing_Base_Of_Device_To_Sounder_Base.xlsx
+++ b/Test Data/TC_63643_Verify_DC_Units_Calculation_On_Changing_Base_Of_Device_To_Sounder_Base.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBC57D-113B-4543-9AD0-2300058DD68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Add Sounder Base Device" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+430SB [516.800.710] @ 90dB &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Device</t>
   </si>
@@ -137,9 +170,6 @@
   </si>
   <si>
     <t>460PC</t>
-  </si>
-  <si>
-    <t>430SB [516.800.710] @ 90dB &amp; 801RIL</t>
   </si>
   <si>
     <t>410LPSY - R/W - 4</t>
@@ -151,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +204,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -598,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,11 +888,11 @@
       <c r="H10" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>35</v>
+      <c r="I10" s="9">
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>9</v>
@@ -870,11 +913,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,13 +1053,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
